--- a/src/main/java/com/amazon/qa/testdata/testdata.xlsx
+++ b/src/main/java/com/amazon/qa/testdata/testdata.xlsx
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2865" windowWidth="13935" windowHeight="5985" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15210" windowHeight="3255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="test_suite" sheetId="1" r:id="rId1"/>
     <sheet name="LoginTest" sheetId="2" r:id="rId2"/>
     <sheet name="UploadPhotoTest" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>tcid</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>C:\Users\Laxmi Computers\screenshort\Rani.png</t>
+  </si>
+  <si>
+    <t>shreyashwari</t>
+  </si>
+  <si>
+    <t>Shreyashwari@123</t>
   </si>
   <si>
     <t>surajraje096@gmail.com</t>
@@ -450,10 +456,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,10 +484,20 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" display="surajraje096@gmail.com"/>
     <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
